--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.1368774770093333</v>
+        <v>29.80608243132133</v>
       </c>
       <c r="R2">
-        <v>1.231897293084</v>
+        <v>268.254741881892</v>
       </c>
       <c r="S2">
-        <v>2.810444308805859E-07</v>
+        <v>1.88139511114806E-05</v>
       </c>
       <c r="T2">
-        <v>2.810444308805858E-07</v>
+        <v>1.88139511114806E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.06281556084133334</v>
+        <v>1.198115021016444</v>
       </c>
       <c r="R3">
-        <v>0.5653400475720001</v>
+        <v>10.783035189148</v>
       </c>
       <c r="S3">
-        <v>1.289763950419218E-07</v>
+        <v>7.562643458184472E-07</v>
       </c>
       <c r="T3">
-        <v>1.289763950419218E-07</v>
+        <v>7.562643458184471E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>86.19652334441402</v>
+        <v>1525.068777261237</v>
       </c>
       <c r="R4">
-        <v>775.7687100997261</v>
+        <v>13725.61899535113</v>
       </c>
       <c r="S4">
-        <v>0.0001769834846208053</v>
+        <v>0.0009626414166689412</v>
       </c>
       <c r="T4">
-        <v>0.0001769834846208053</v>
+        <v>0.0009626414166689411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>2.302058704566333</v>
+        <v>21.69609662277299</v>
       </c>
       <c r="R5">
-        <v>20.718528341097</v>
+        <v>195.2648696049569</v>
       </c>
       <c r="S5">
-        <v>4.726714669312819E-06</v>
+        <v>1.369483232529311E-05</v>
       </c>
       <c r="T5">
-        <v>4.726714669312819E-06</v>
+        <v>1.369483232529311E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>89.64425618474867</v>
+        <v>2106.125604801342</v>
       </c>
       <c r="R6">
-        <v>806.798305662738</v>
+        <v>18955.13044321208</v>
       </c>
       <c r="S6">
-        <v>0.0001840625609970749</v>
+        <v>0.001329411345978532</v>
       </c>
       <c r="T6">
-        <v>0.0001840625609970749</v>
+        <v>0.001329411345978532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>116.267773888864</v>
+        <v>629.0517322756542</v>
       </c>
       <c r="R7">
-        <v>1046.409964999776</v>
+        <v>5661.465590480888</v>
       </c>
       <c r="S7">
-        <v>0.0002387274448382791</v>
+        <v>0.0003970648797907686</v>
       </c>
       <c r="T7">
-        <v>0.000238727444838279</v>
+        <v>0.0003970648797907685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>2.196750393313333</v>
+        <v>25.07970063286</v>
       </c>
       <c r="R8">
-        <v>19.77075353982</v>
+        <v>225.71730569574</v>
       </c>
       <c r="S8">
-        <v>4.510489801279365E-06</v>
+        <v>1.58306031221789E-05</v>
       </c>
       <c r="T8">
-        <v>4.510489801279366E-06</v>
+        <v>1.58306031221789E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>1.008128663673333</v>
@@ -1013,10 +1013,10 @@
         <v>9.073157973059999</v>
       </c>
       <c r="S9">
-        <v>2.069945711500498E-06</v>
+        <v>6.363427141468702E-07</v>
       </c>
       <c r="T9">
-        <v>2.069945711500498E-06</v>
+        <v>6.363427141468702E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>1383.37037397447</v>
+        <v>1283.237019368938</v>
       </c>
       <c r="R10">
-        <v>12450.33336577023</v>
+        <v>11549.13317432044</v>
       </c>
       <c r="S10">
-        <v>0.002840412812578418</v>
+        <v>0.0008099943561009275</v>
       </c>
       <c r="T10">
-        <v>0.002840412812578418</v>
+        <v>0.0008099943561009275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>36.94580346729833</v>
+        <v>18.25572379243499</v>
       </c>
       <c r="R11">
-        <v>332.512231205685</v>
+        <v>164.301514131915</v>
       </c>
       <c r="S11">
-        <v>7.585917373524365E-05</v>
+        <v>1.152322837887083E-05</v>
       </c>
       <c r="T11">
-        <v>7.585917373524366E-05</v>
+        <v>1.152322837887083E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>1438.703133158276</v>
+        <v>1772.155055443066</v>
       </c>
       <c r="R12">
-        <v>12948.32819842449</v>
+        <v>15949.3954989876</v>
       </c>
       <c r="S12">
-        <v>0.002954025104049899</v>
+        <v>0.00111860519247685</v>
       </c>
       <c r="T12">
-        <v>0.002954025104049899</v>
+        <v>0.00111860519247685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>1865.98470106672</v>
+        <v>529.3023383534949</v>
       </c>
       <c r="R13">
-        <v>16793.86230960048</v>
+        <v>4763.721045181454</v>
       </c>
       <c r="S13">
-        <v>0.003831343328365245</v>
+        <v>0.0003341018847384822</v>
       </c>
       <c r="T13">
-        <v>0.003831343328365245</v>
+        <v>0.0003341018847384822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>93.58716233113954</v>
+        <v>1341.57394949778</v>
       </c>
       <c r="R14">
-        <v>842.284460980256</v>
+        <v>12074.16554548002</v>
       </c>
       <c r="S14">
-        <v>0.0001921583546816153</v>
+        <v>0.0008468173151049106</v>
       </c>
       <c r="T14">
-        <v>0.0001921583546816153</v>
+        <v>0.0008468173151049106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>42.94884898396089</v>
+        <v>53.92724469581999</v>
       </c>
       <c r="R15">
-        <v>386.539640855648</v>
+        <v>485.3452022623799</v>
       </c>
       <c r="S15">
-        <v>8.818495988825435E-05</v>
+        <v>3.403951349936032E-05</v>
       </c>
       <c r="T15">
-        <v>8.818495988825435E-05</v>
+        <v>3.403951349936032E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>58935.10166076098</v>
+        <v>68643.4571695374</v>
       </c>
       <c r="R16">
-        <v>530415.9149468488</v>
+        <v>617791.1145258367</v>
       </c>
       <c r="S16">
-        <v>0.1210088209326698</v>
+        <v>0.0433285605475472</v>
       </c>
       <c r="T16">
-        <v>0.1210088209326698</v>
+        <v>0.0433285605475472</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>1573.985336282694</v>
+        <v>976.5428952955048</v>
       </c>
       <c r="R17">
-        <v>14165.86802654425</v>
+        <v>8788.886057659543</v>
       </c>
       <c r="S17">
-        <v>0.003231794030071097</v>
+        <v>0.0006164054042555659</v>
       </c>
       <c r="T17">
-        <v>0.003231794030071098</v>
+        <v>0.0006164054042555659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>61292.41814593258</v>
+        <v>94796.8674609372</v>
       </c>
       <c r="R18">
-        <v>551631.7633133933</v>
+        <v>853171.8071484347</v>
       </c>
       <c r="S18">
-        <v>0.1258489939432762</v>
+        <v>0.05983690188206039</v>
       </c>
       <c r="T18">
-        <v>0.1258489939432762</v>
+        <v>0.05983690188206039</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>79495.70131304645</v>
+        <v>28313.66446268188</v>
       </c>
       <c r="R19">
-        <v>715461.311817418</v>
+        <v>254822.9801641369</v>
       </c>
       <c r="S19">
-        <v>0.1632249850094384</v>
+        <v>0.01787191927067847</v>
       </c>
       <c r="T19">
-        <v>0.1632249850094384</v>
+        <v>0.01787191927067847</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>5.432170323686666</v>
+        <v>166.0061836096413</v>
       </c>
       <c r="R20">
-        <v>48.88953291318</v>
+        <v>1494.055652486772</v>
       </c>
       <c r="S20">
-        <v>1.115363352995487E-05</v>
+        <v>0.000104785062908947</v>
       </c>
       <c r="T20">
-        <v>1.115363352995487E-05</v>
+        <v>0.000104785062908947</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>2.492921647326666</v>
+        <v>6.67295014776311</v>
       </c>
       <c r="R21">
-        <v>22.43629482594</v>
+        <v>60.056551329868</v>
       </c>
       <c r="S21">
-        <v>5.118605054029758E-06</v>
+        <v>4.212044911928297E-06</v>
       </c>
       <c r="T21">
-        <v>5.118605054029758E-06</v>
+        <v>4.212044911928297E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>3420.827197776031</v>
+        <v>8493.932338767163</v>
       </c>
       <c r="R22">
-        <v>30787.44477998427</v>
+        <v>76445.39104890446</v>
       </c>
       <c r="S22">
-        <v>0.007023832218022532</v>
+        <v>0.005361470368808384</v>
       </c>
       <c r="T22">
-        <v>0.007023832218022532</v>
+        <v>0.005361470368808384</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>91.36035563745166</v>
+        <v>120.837289095993</v>
       </c>
       <c r="R23">
-        <v>822.243200737065</v>
+        <v>1087.535601863937</v>
       </c>
       <c r="S23">
-        <v>0.0001875861516166368</v>
+        <v>7.627392344278224E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001875861516166369</v>
+        <v>7.627392344278224E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>3557.655202123223</v>
+        <v>11730.15187961148</v>
       </c>
       <c r="R24">
-        <v>32018.89681910901</v>
+        <v>105571.3669165033</v>
       </c>
       <c r="S24">
-        <v>0.007304775068888061</v>
+        <v>0.007404210348735494</v>
       </c>
       <c r="T24">
-        <v>0.007304775068888061</v>
+        <v>0.007404210348735493</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>4614.246001021281</v>
+        <v>3503.529107145594</v>
       </c>
       <c r="R25">
-        <v>41528.21400919152</v>
+        <v>31531.76196431035</v>
       </c>
       <c r="S25">
-        <v>0.009474225925508686</v>
+        <v>0.002211468933945521</v>
       </c>
       <c r="T25">
-        <v>0.009474225925508686</v>
+        <v>0.002211468933945521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>81.64918695179377</v>
+        <v>1142.060912723305</v>
       </c>
       <c r="R26">
-        <v>734.8426825661439</v>
+        <v>10278.54821450975</v>
       </c>
       <c r="S26">
-        <v>0.0001676466412159594</v>
+        <v>0.0007208823309074053</v>
       </c>
       <c r="T26">
-        <v>0.0001676466412159594</v>
+        <v>0.0007208823309074053</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>37.47029520617244</v>
+        <v>45.90741965511244</v>
       </c>
       <c r="R27">
-        <v>337.232656855552</v>
+        <v>413.166776896012</v>
       </c>
       <c r="S27">
-        <v>7.693608927660326E-05</v>
+        <v>2.897730525424238E-05</v>
       </c>
       <c r="T27">
-        <v>7.693608927660326E-05</v>
+        <v>2.897730525424238E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>51417.34201210343</v>
+        <v>58435.10108173484</v>
       </c>
       <c r="R28">
-        <v>462756.0781089308</v>
+        <v>525915.9097356136</v>
       </c>
       <c r="S28">
-        <v>0.105572939675084</v>
+        <v>0.03688492566842336</v>
       </c>
       <c r="T28">
-        <v>0.105572939675084</v>
+        <v>0.03688492566842336</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>1373.207818042439</v>
+        <v>831.3156876161369</v>
       </c>
       <c r="R29">
-        <v>12358.87036238195</v>
+        <v>7481.841188545232</v>
       </c>
       <c r="S29">
-        <v>0.00281954648883682</v>
+        <v>0.0005247362762635804</v>
       </c>
       <c r="T29">
-        <v>0.002819546488836821</v>
+        <v>0.0005247362762635804</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>53473.95928319126</v>
+        <v>80699.0900622935</v>
       </c>
       <c r="R30">
-        <v>481265.6335487214</v>
+        <v>726291.8105606416</v>
       </c>
       <c r="S30">
-        <v>0.1097957003740751</v>
+        <v>0.05093821835430165</v>
       </c>
       <c r="T30">
-        <v>0.1097957003740751</v>
+        <v>0.05093821835430164</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>69355.23224228797</v>
+        <v>24102.97955688308</v>
       </c>
       <c r="R31">
-        <v>624197.0901805917</v>
+        <v>216926.8160119478</v>
       </c>
       <c r="S31">
-        <v>0.1424040112369662</v>
+        <v>0.01521408524817369</v>
       </c>
       <c r="T31">
-        <v>0.1424040112369662</v>
+        <v>0.01521408524817369</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>43.27519275822088</v>
+        <v>8244.00092158955</v>
       </c>
       <c r="R32">
-        <v>389.476734823988</v>
+        <v>74196.00829430594</v>
       </c>
       <c r="S32">
-        <v>8.885502703379408E-05</v>
+        <v>0.005203710707677561</v>
       </c>
       <c r="T32">
-        <v>8.885502703379407E-05</v>
+        <v>0.00520371070767756</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>19.85977213357822</v>
+        <v>331.3840844461484</v>
       </c>
       <c r="R33">
-        <v>178.737949202204</v>
+        <v>2982.456760015336</v>
       </c>
       <c r="S33">
-        <v>4.077718612770035E-05</v>
+        <v>0.0002091735463141913</v>
       </c>
       <c r="T33">
-        <v>4.077718612770034E-05</v>
+        <v>0.0002091735463141913</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>27251.8988829963</v>
+        <v>421815.5282298105</v>
       </c>
       <c r="R34">
-        <v>245267.0899469667</v>
+        <v>3796339.754068294</v>
       </c>
       <c r="S34">
-        <v>0.05595511094542401</v>
+        <v>0.2662549412343959</v>
       </c>
       <c r="T34">
-        <v>0.055955110945424</v>
+        <v>0.2662549412343959</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>727.8190419454864</v>
+        <v>6000.877202335085</v>
       </c>
       <c r="R35">
-        <v>6550.371377509379</v>
+        <v>54007.89482101576</v>
       </c>
       <c r="S35">
-        <v>0.001494398442292115</v>
+        <v>0.003787824534501424</v>
       </c>
       <c r="T35">
-        <v>0.001494398442292115</v>
+        <v>0.003787824534501423</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>28341.93434028455</v>
+        <v>582528.7998505981</v>
       </c>
       <c r="R36">
-        <v>255077.4090625609</v>
+        <v>5242759.198655383</v>
       </c>
       <c r="S36">
-        <v>0.05819323223043531</v>
+        <v>0.3676990556095959</v>
       </c>
       <c r="T36">
-        <v>0.0581932322304353</v>
+        <v>0.3676990556095958</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>36759.22757011912</v>
+        <v>173988.0802033365</v>
       </c>
       <c r="R37">
-        <v>330833.048131072</v>
+        <v>1565892.721830029</v>
       </c>
       <c r="S37">
-        <v>0.07547608575039431</v>
+        <v>0.1098233302705399</v>
       </c>
       <c r="T37">
-        <v>0.07547608575039431</v>
+        <v>0.1098233302705399</v>
       </c>
     </row>
   </sheetData>
